--- a/ConsoleDataObjects/XML/StatementLineDef.xlsx
+++ b/ConsoleDataObjects/XML/StatementLineDef.xlsx
@@ -57,9 +57,6 @@
     <t>DifferenceOfLines</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>DisplayName</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>ab</t>
+  </si>
+  <si>
+    <t>BILANS_A1</t>
   </si>
 </sst>
 </file>
@@ -158,12 +158,12 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xs:schema xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns="" attributeFormDefault="unqualified" elementFormDefault="qualified">
-      <xs:element name="StatementLineDefs">
+      <xs:element name="StatementLineDefCollection">
         <xs:complexType>
           <xs:sequence>
-            <xs:element name="StatementLineDef" maxOccurs="unbounded" minOccurs="0">
+            <xs:element name="StatementLineDefElement" maxOccurs="unbounded" minOccurs="0">
               <xs:complexType>
                 <xs:sequence>
                   <xs:element type="xs:string" name="Alias"/>
@@ -187,7 +187,7 @@
       </xs:element>
     </xs:schema>
   </Schema>
-  <Map ID="2" Name="StatementLineDefs_Map" RootElement="StatementLineDefs" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="3" Name="StatementLineDefCollection_Map" RootElement="StatementLineDefCollection" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
@@ -196,43 +196,43 @@
   <autoFilter ref="A1:M3"/>
   <tableColumns count="13">
     <tableColumn id="1" uniqueName="Alias" name="Alias">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/Alias" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/Alias" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="DisplayName_PL" name="DisplayName_PL">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/DisplayName_PL" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/DisplayName_PL" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="DisplayName_EN" name="DisplayName_EN">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/DisplayName_EN" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/DisplayName_EN" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="IsOptional" name="IsOptional">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/IsOptional" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/IsOptional" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="IsCalculated" name="IsCalculated">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/IsCalculated" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/IsCalculated" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="LevelName" name="LevelName">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/LevelName" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/LevelName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="Level" name="Level">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/Level" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/Level" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="LevelOrder" name="LevelOrder">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/LevelOrder" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/LevelOrder" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="ParentLineDef" name="ParentLineDef">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/ParentLineDef" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/ParentLineDef" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="RZiSFlag" name="RZiSFlag">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/RZiSFlag" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/RZiSFlag" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="Segment" name="Segment">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/Segment" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/Segment" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="SumOfLines" name="SumOfLines">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/SumOfLines" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/SumOfLines" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="DifferenceOfLines" name="DifferenceOfLines">
-      <xmlColumnPr mapId="2" xpath="/StatementLineDefs/StatementLineDef/DifferenceOfLines" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/DifferenceOfLines" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,84 +588,84 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ConsoleDataObjects/XML/StatementLineDef.xlsx
+++ b/ConsoleDataObjects/XML/StatementLineDef.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="13395" windowHeight="11820"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Alias</t>
   </si>
@@ -66,24 +66,12 @@
     <t>SME,CTB</t>
   </si>
   <si>
-    <t>A1,A2</t>
-  </si>
-  <si>
     <t>B1,B2</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A1,A3</t>
-  </si>
-  <si>
     <t>B1,B3</t>
   </si>
   <si>
-    <t>LevelName2</t>
-  </si>
-  <si>
     <t>DisplayName2</t>
   </si>
   <si>
@@ -96,13 +84,43 @@
     <t>nie</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>ab</t>
-  </si>
-  <si>
     <t>BILANS_A1</t>
+  </si>
+  <si>
+    <t>BILANS_A22</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>BILANS_A23</t>
+  </si>
+  <si>
+    <t>DisplayName3</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>B1,B4</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>A11,A33</t>
+  </si>
+  <si>
+    <t>A11,A44</t>
+  </si>
+  <si>
+    <t>A11,A22</t>
   </si>
 </sst>
 </file>
@@ -144,7 +162,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -160,7 +178,7 @@
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
   <Schema ID="Schema3">
     <xs:schema xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns="" attributeFormDefault="unqualified" elementFormDefault="qualified">
-      <xs:element name="StatementLineDefCollection">
+      <xs:element name="StatementLineDefsImport">
         <xs:complexType>
           <xs:sequence>
             <xs:element name="StatementLineDefElement" maxOccurs="unbounded" minOccurs="0">
@@ -187,52 +205,55 @@
       </xs:element>
     </xs:schema>
   </Schema>
-  <Map ID="3" Name="StatementLineDefCollection_Map" RootElement="StatementLineDefCollection" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="5" Name="StatementLineDefsImport_mapa" RootElement="StatementLineDefsImport" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M3" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:M3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M4" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:M4"/>
+  <sortState ref="A2:M4">
+    <sortCondition descending="1" ref="G1"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" uniqueName="Alias" name="Alias">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/Alias" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/Alias" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="DisplayName_PL" name="DisplayName_PL">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/DisplayName_PL" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/DisplayName_PL" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="DisplayName_EN" name="DisplayName_EN">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/DisplayName_EN" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/DisplayName_EN" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="IsOptional" name="IsOptional">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/IsOptional" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/IsOptional" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="IsCalculated" name="IsCalculated">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/IsCalculated" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/IsCalculated" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="LevelName" name="LevelName">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/LevelName" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/LevelName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="Level" name="Level">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/Level" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/Level" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="LevelOrder" name="LevelOrder">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/LevelOrder" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/LevelOrder" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="ParentLineDef" name="ParentLineDef">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/ParentLineDef" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/ParentLineDef" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="RZiSFlag" name="RZiSFlag">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/RZiSFlag" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/RZiSFlag" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" uniqueName="Segment" name="Segment">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/Segment" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/Segment" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="12" uniqueName="SumOfLines" name="SumOfLines">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/SumOfLines" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/SumOfLines" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="DifferenceOfLines" name="DifferenceOfLines">
-      <xmlColumnPr mapId="3" xpath="/StatementLineDefCollection/StatementLineDefElement/DifferenceOfLines" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/StatementLineDefsImport/StatementLineDefElement/DifferenceOfLines" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -240,9 +261,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,7 +301,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -352,7 +373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,21 +547,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="13" width="12" customWidth="1"/>
   </cols>
@@ -588,40 +610,36 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>17</v>
@@ -629,43 +647,72 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
